--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FD4B85-2286-4312-BA7C-7634636EC1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA071D3C-E89C-4540-90E1-A5E6CF3D3A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方式" sheetId="3" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
-  <si>
-    <t>网址分类 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备用链接地址（其他站点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一句话描述（简介）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,18 +63,6 @@
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGO，标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站预览截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,6 +187,34 @@
   </si>
   <si>
     <t>不参与同步的数据，但是在 Excel 表中有用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用链接地址（其他站点）的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO，标志的图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站预览截图的图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号二维码的图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址分类 ID 列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址标签 ID 列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>å</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -374,9 +382,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -386,17 +391,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -442,16 +444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1086970</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1146735</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1546410</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1606175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -466,8 +468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10018058" y="1535205"/>
-          <a:ext cx="2689411" cy="762000"/>
+          <a:off x="10978029" y="3518646"/>
+          <a:ext cx="2670734" cy="821766"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -530,6 +532,138 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="对话气泡: 矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EB4CA3-A3E0-E04D-8F09-02132EC7EEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2748429" y="3222811"/>
+          <a:ext cx="1674159" cy="198718"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 24623"/>
+            <a:gd name="adj2" fmla="val -235907"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>多个的话，用半角逗号分隔。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>564029</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="对话气泡: 矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76D1094-9FEA-8040-8D32-81BFB74757D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2596029" y="3070411"/>
+          <a:ext cx="2065618" cy="395942"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20000"/>
+            <a:gd name="adj2" fmla="val -108088"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>多个的话，用半角逗号分隔。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -545,8 +679,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>280147</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -561,8 +695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6656294" y="280148"/>
-          <a:ext cx="2431676" cy="560293"/>
+          <a:off x="6637618" y="272677"/>
+          <a:ext cx="2398058" cy="758264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,6 +750,18 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
             <a:t>表中的保持一致。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t> 做排序用。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
         </a:p>
@@ -892,205 +1038,220 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A3:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="50.375" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="17" max="17" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="14" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="64">
+      <c r="A11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4">
+        <f>IF(ISBLANK($B11), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B11, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="M11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="12">
-        <f>IF(ISBLANK($B2), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B2, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v>2</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:Q2">
+  <conditionalFormatting sqref="A11:R11">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(NOT(ISBLANK($A2)), $A2=FALSE)</formula>
+      <formula>AND(NOT(ISBLANK($A11)), $A11=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{71F89599-4B24-4A80-879F-3B9FF0BDB10A}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{77C295E2-86B7-4722-9182-544B5C633138}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{D473403B-638A-4A28-B33E-C0BD21107C38}"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{71F89599-4B24-4A80-879F-3B9FF0BDB10A}"/>
+    <hyperlink ref="O11" r:id="rId2" xr:uid="{77C295E2-86B7-4722-9182-544B5C633138}"/>
+    <hyperlink ref="P11" r:id="rId3" xr:uid="{D473403B-638A-4A28-B33E-C0BD21107C38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -1099,914 +1260,954 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="50.375" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="17" max="17" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="14" t="s">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" ht="64">
       <c r="A2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="8">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4">
         <f>IF(ISBLANK($B2), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B2, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12" t="str">
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="4" t="str">
         <f>IF(ISBLANK($B3), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B3, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="12" t="str">
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="4" t="str">
         <f>IF(ISBLANK($B4), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B4, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="12" t="str">
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="4" t="str">
         <f>IF(ISBLANK($B5), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B5, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="12" t="str">
+      <c r="G6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="4" t="str">
         <f>IF(ISBLANK($B6), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B6, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="12" t="str">
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="4" t="str">
         <f>IF(ISBLANK($B7), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B7, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12" t="str">
+      <c r="G8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="4" t="str">
         <f>IF(ISBLANK($B8), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B8, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="12" t="str">
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="4" t="str">
         <f>IF(ISBLANK($B9), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B9, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="12" t="str">
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="4" t="str">
         <f>IF(ISBLANK($B10), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B10, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="12" t="str">
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="4" t="str">
         <f>IF(ISBLANK($B11), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B11, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12" t="str">
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="4" t="str">
         <f>IF(ISBLANK($B12), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B12, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="12" t="str">
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="4" t="str">
         <f>IF(ISBLANK($B13), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B13, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="12" t="str">
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="4" t="str">
         <f>IF(ISBLANK($B14), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B14, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12" t="str">
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="4" t="str">
         <f>IF(ISBLANK($B15), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B15, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12" t="str">
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="4" t="str">
         <f>IF(ISBLANK($B16), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B16, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12" t="str">
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="4" t="str">
         <f>IF(ISBLANK($B17), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B17, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="12" t="str">
+      <c r="G18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="4" t="str">
         <f>IF(ISBLANK($B18), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B18, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="12" t="str">
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="4" t="str">
         <f>IF(ISBLANK($B19), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B19, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="12" t="str">
+      <c r="G20" s="8"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="4" t="str">
         <f>IF(ISBLANK($B20), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B20, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="12" t="str">
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="4" t="str">
         <f>IF(ISBLANK($B21), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B21, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="12" t="str">
+      <c r="G22" s="8"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="4" t="str">
         <f>IF(ISBLANK($B22), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B22, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="12" t="str">
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="4" t="str">
         <f>IF(ISBLANK($B23), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B23, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="5"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12" t="str">
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="4" t="str">
         <f>IF(ISBLANK($B24), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B24, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="12" t="str">
+      <c r="G25" s="8"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="4" t="str">
         <f>IF(ISBLANK($B25), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B25, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12" t="str">
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="4" t="str">
         <f>IF(ISBLANK($B26), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B26, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12" t="str">
+      <c r="G27" s="8"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="4" t="str">
         <f>IF(ISBLANK($B27), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B27, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12" t="str">
+      <c r="G28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="4" t="str">
         <f>IF(ISBLANK($B28), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B28, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="12" t="str">
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="4" t="str">
         <f>IF(ISBLANK($B29), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B29, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="5"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12" t="str">
+      <c r="G30" s="8"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="4" t="str">
         <f>IF(ISBLANK($B30), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B30, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="12" t="str">
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="4" t="str">
         <f>IF(ISBLANK($B31), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B31, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="12" t="str">
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="4" t="str">
         <f>IF(ISBLANK($B32), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B32, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="12" t="str">
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="4" t="str">
         <f>IF(ISBLANK($B33), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B33, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="5"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="12" t="str">
+      <c r="G34" s="8"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="4" t="str">
         <f>IF(ISBLANK($B34), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B34, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="5"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="12" t="str">
+      <c r="G35" s="8"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="4" t="str">
         <f>IF(ISBLANK($B35), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B35, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="5"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="12" t="str">
+      <c r="G36" s="8"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="4" t="str">
         <f>IF(ISBLANK($B36), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B36, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="5"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="12" t="str">
+      <c r="G37" s="8"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="4" t="str">
         <f>IF(ISBLANK($B37), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B37, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v/>
       </c>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="5"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="16"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:Q37">
+  <conditionalFormatting sqref="A2:R37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(NOT(ISBLANK($A2)), $A2=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{8A841FF2-14C9-4643-911E-325E5E4C716D}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{F44E5DA1-75DF-4146-9AB9-F7F023CEAEF5}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{A2486B70-5E1D-4C59-8987-3E38FC64A4FC}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{8A841FF2-14C9-4643-911E-325E5E4C716D}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{F44E5DA1-75DF-4146-9AB9-F7F023CEAEF5}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{A2486B70-5E1D-4C59-8987-3E38FC64A4FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2016,181 +2217,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA0697-F5E8-4071-98D0-CFFBD9AA1AE7}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>29</v>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA071D3C-E89C-4540-90E1-A5E6CF3D3A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC258003-2055-8149-9186-6CC658504B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方式" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>å</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会在数据库中建立隐藏字段。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -401,6 +411,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,13 +459,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1146735</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>186764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1606175</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -536,13 +549,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -602,13 +615,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564029</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>239059</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1038,9 +1051,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:R11"/>
+  <dimension ref="A3:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -1089,9 +1102,9 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="13"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1101,9 +1114,9 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1113,9 +1126,9 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="15"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1125,133 +1138,146 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="I8" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="I9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="64">
-      <c r="A11" s="8" t="b">
+    <row r="12" spans="1:18" ht="64">
+      <c r="A12" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="4">
-        <f>IF(ISBLANK($B11), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B11, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+      <c r="J12" s="4">
+        <f>IF(ISBLANK($B12), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B12, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A11:R11">
+  <conditionalFormatting sqref="A12:R12">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(NOT(ISBLANK($A11)), $A11=FALSE)</formula>
+      <formula>AND(NOT(ISBLANK($A12)), $A12=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" xr:uid="{71F89599-4B24-4A80-879F-3B9FF0BDB10A}"/>
-    <hyperlink ref="O11" r:id="rId2" xr:uid="{77C295E2-86B7-4722-9182-544B5C633138}"/>
-    <hyperlink ref="P11" r:id="rId3" xr:uid="{D473403B-638A-4A28-B33E-C0BD21107C38}"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{71F89599-4B24-4A80-879F-3B9FF0BDB10A}"/>
+    <hyperlink ref="O12" r:id="rId2" xr:uid="{77C295E2-86B7-4722-9182-544B5C633138}"/>
+    <hyperlink ref="P12" r:id="rId3" xr:uid="{D473403B-638A-4A28-B33E-C0BD21107C38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -1264,7 +1290,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1291,7 +1317,7 @@
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -2217,9 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA0697-F5E8-4071-98D0-CFFBD9AA1AE7}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -2231,7 +2255,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="11" t="s">

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC258003-2055-8149-9186-6CC658504B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C6177-B735-443B-9460-D7CE1946853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方式" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,109 @@
   </si>
   <si>
     <t>会在数据库中建立隐藏字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_search_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_search_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_search_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_search_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 搜索。
+由 Google 强力驱动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索。
+由百度强力驱动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bing 搜索。
+由微软强力驱动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 搜索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.so.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bing.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 国内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://google.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌中国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很厉害的搜索引擎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害的搜索引擎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般厉害的搜索引擎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.senjianlu.com/blog/2024-10-14/baidu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.senjianlu.com/blog/2024-10-14/bing.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.senjianlu.com/blog/2024-10-14/360.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.senjianlu.com/blog/2024-10-14/google.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -405,14 +508,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,110 +1167,110 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1210,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="64">
+    <row r="12" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="b">
         <v>0</v>
       </c>
@@ -1288,36 +1400,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -1369,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="64">
+    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="b">
         <v>0</v>
       </c>
@@ -1378,11 +1490,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="8">
+      <c r="E2" s="20">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1418,106 +1530,194 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="4" t="str">
+      <c r="G3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
         <f>IF(ISBLANK($B3), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B3, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="4" t="str">
+      <c r="G4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4">
         <f>IF(ISBLANK($B4), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B4, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="4" t="str">
+      <c r="G5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="4">
         <f>IF(ISBLANK($B5), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B5, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="4" t="str">
+      <c r="G6" s="21">
+        <v>360</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="4">
         <f>IF(ISBLANK($B6), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B6, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10"/>
       <c r="J7" s="4" t="str">
@@ -1533,14 +1733,14 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="4"/>
       <c r="I8" s="10"/>
       <c r="J8" s="4" t="str">
@@ -1556,14 +1756,14 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
       <c r="J9" s="4" t="str">
@@ -1579,14 +1779,14 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
       <c r="J10" s="4" t="str">
@@ -1602,14 +1802,14 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
       <c r="J11" s="4" t="str">
@@ -1625,14 +1825,14 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
       <c r="J12" s="4" t="str">
@@ -1648,14 +1848,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="4"/>
       <c r="I13" s="10"/>
       <c r="J13" s="4" t="str">
@@ -1671,14 +1871,14 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="4"/>
       <c r="I14" s="10"/>
       <c r="J14" s="4" t="str">
@@ -1694,14 +1894,14 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
       <c r="J15" s="4" t="str">
@@ -1717,14 +1917,14 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
       <c r="J16" s="4" t="str">
@@ -1740,14 +1940,14 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
       <c r="J17" s="4" t="str">
@@ -1763,14 +1963,14 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
       <c r="J18" s="4" t="str">
@@ -1786,14 +1986,14 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="4"/>
       <c r="I19" s="10"/>
       <c r="J19" s="4" t="str">
@@ -1809,14 +2009,14 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
       <c r="J20" s="4" t="str">
@@ -1832,14 +2032,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="4"/>
       <c r="I21" s="10"/>
       <c r="J21" s="4" t="str">
@@ -1855,14 +2055,14 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="4"/>
       <c r="I22" s="10"/>
       <c r="J22" s="4" t="str">
@@ -1878,14 +2078,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="4"/>
       <c r="I23" s="10"/>
       <c r="J23" s="4" t="str">
@@ -1901,14 +2101,14 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="4"/>
       <c r="I24" s="10"/>
       <c r="J24" s="4" t="str">
@@ -1924,14 +2124,14 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="4"/>
       <c r="I25" s="10"/>
       <c r="J25" s="4" t="str">
@@ -1947,14 +2147,14 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="4"/>
       <c r="I26" s="10"/>
       <c r="J26" s="4" t="str">
@@ -1970,14 +2170,14 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="4"/>
       <c r="I27" s="10"/>
       <c r="J27" s="4" t="str">
@@ -1993,14 +2193,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="4"/>
       <c r="I28" s="10"/>
       <c r="J28" s="4" t="str">
@@ -2016,14 +2216,14 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="4"/>
       <c r="I29" s="10"/>
       <c r="J29" s="4" t="str">
@@ -2039,14 +2239,14 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="4"/>
       <c r="I30" s="10"/>
       <c r="J30" s="4" t="str">
@@ -2062,14 +2262,14 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="4"/>
       <c r="I31" s="10"/>
       <c r="J31" s="4" t="str">
@@ -2085,14 +2285,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="4"/>
       <c r="I32" s="10"/>
       <c r="J32" s="4" t="str">
@@ -2108,14 +2308,14 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="4"/>
       <c r="I33" s="10"/>
       <c r="J33" s="4" t="str">
@@ -2131,14 +2331,14 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="4"/>
       <c r="I34" s="10"/>
       <c r="J34" s="4" t="str">
@@ -2154,14 +2354,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="4"/>
       <c r="I35" s="10"/>
       <c r="J35" s="4" t="str">
@@ -2177,14 +2377,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="4"/>
       <c r="I36" s="10"/>
       <c r="J36" s="4" t="str">
@@ -2200,14 +2400,14 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="4"/>
       <c r="I37" s="10"/>
       <c r="J37" s="4" t="str">
@@ -2234,6 +2434,14 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{8A841FF2-14C9-4643-911E-325E5E4C716D}"/>
     <hyperlink ref="O2" r:id="rId2" xr:uid="{F44E5DA1-75DF-4146-9AB9-F7F023CEAEF5}"/>
     <hyperlink ref="P2" r:id="rId3" xr:uid="{A2486B70-5E1D-4C59-8987-3E38FC64A4FC}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{10F61D49-62DE-450A-B130-ACAF15D36D3A}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{3D7F01B0-F84E-42CC-B17E-900CB5193DF5}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{EF7A7FDC-DB98-474F-8414-6D8F777A6381}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{766DA363-B40A-4D32-BEA5-622D22BC9336}"/>
+    <hyperlink ref="O4" r:id="rId8" xr:uid="{1387EE55-B787-4B46-AAE6-FCE8A43E0EE5}"/>
+    <hyperlink ref="O5" r:id="rId9" xr:uid="{2576583A-8747-41C9-80BB-CFD41C2F93BE}"/>
+    <hyperlink ref="O6" r:id="rId10" xr:uid="{4FA9D3D6-053E-49CB-9557-304311E88DFE}"/>
+    <hyperlink ref="O3" r:id="rId11" xr:uid="{175EBDC9-5EF7-4666-A5CC-94610D8D338E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2243,19 +2451,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA0697-F5E8-4071-98D0-CFFBD9AA1AE7}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2271,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -2288,7 +2496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2305,119 +2513,129 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2429,8 +2647,9 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D6F37F70-53C5-4DA2-995F-95E49366F4C5}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{59A3E3C1-F3BA-458A-99DD-0A7BCD494212}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{54278758-899A-4B66-AC4C-132DDE0C42A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C6177-B735-443B-9460-D7CE1946853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9697E1F-CE1E-4DAF-B7AB-DE4E8CD3CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
       <c r="E2" s="20">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="21" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1542,9 @@
       <c r="E3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="20">
+        <v>10</v>
+      </c>
       <c r="G3" s="21" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1589,9 @@
       <c r="E4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="20">
+        <v>10</v>
+      </c>
       <c r="G4" s="21" t="s">
         <v>51</v>
       </c>
@@ -1632,7 +1636,9 @@
       <c r="E5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="20">
+        <v>10</v>
+      </c>
       <c r="G5" s="21" t="s">
         <v>52</v>
       </c>
@@ -1677,7 +1683,9 @@
       <c r="E6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="20">
+        <v>10</v>
+      </c>
       <c r="G6" s="21">
         <v>360</v>
       </c>
@@ -1716,7 +1724,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10"/>
@@ -1739,7 +1747,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="4"/>
       <c r="I8" s="10"/>
@@ -1762,7 +1770,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
@@ -1785,7 +1793,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
@@ -1808,7 +1816,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
@@ -1831,7 +1839,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
@@ -1854,7 +1862,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="4"/>
       <c r="I13" s="10"/>
@@ -1877,7 +1885,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="H14" s="4"/>
       <c r="I14" s="10"/>
@@ -1900,7 +1908,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
@@ -1923,7 +1931,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
@@ -1946,7 +1954,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
@@ -1969,7 +1977,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
@@ -1992,7 +2000,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="4"/>
       <c r="I19" s="10"/>
@@ -2015,7 +2023,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
@@ -2038,7 +2046,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="21"/>
       <c r="H21" s="4"/>
       <c r="I21" s="10"/>
@@ -2061,7 +2069,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="21"/>
       <c r="H22" s="4"/>
       <c r="I22" s="10"/>
@@ -2084,7 +2092,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
       <c r="I23" s="10"/>
@@ -2107,7 +2115,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
       <c r="I24" s="10"/>
@@ -2130,7 +2138,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
       <c r="I25" s="10"/>
@@ -2153,7 +2161,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
       <c r="I26" s="10"/>
@@ -2176,7 +2184,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
       <c r="I27" s="10"/>
@@ -2199,7 +2207,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="21"/>
       <c r="H28" s="4"/>
       <c r="I28" s="10"/>
@@ -2222,7 +2230,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="21"/>
       <c r="H29" s="4"/>
       <c r="I29" s="10"/>
@@ -2245,7 +2253,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="4"/>
       <c r="I30" s="10"/>
@@ -2268,7 +2276,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="21"/>
       <c r="H31" s="4"/>
       <c r="I31" s="10"/>
@@ -2291,7 +2299,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="21"/>
       <c r="H32" s="4"/>
       <c r="I32" s="10"/>
@@ -2314,7 +2322,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="21"/>
       <c r="H33" s="4"/>
       <c r="I33" s="10"/>
@@ -2337,7 +2345,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="21"/>
       <c r="H34" s="4"/>
       <c r="I34" s="10"/>
@@ -2360,7 +2368,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="21"/>
       <c r="H35" s="4"/>
       <c r="I35" s="10"/>
@@ -2383,7 +2391,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="21"/>
       <c r="H36" s="4"/>
       <c r="I36" s="10"/>
@@ -2406,7 +2414,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="21"/>
       <c r="H37" s="4"/>
       <c r="I37" s="10"/>

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9697E1F-CE1E-4DAF-B7AB-DE4E8CD3CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F880776A-F9C6-4444-9299-28E44A7F9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方式" sheetId="3" r:id="rId1"/>
@@ -297,18 +297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厉害的搜索引擎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一般厉害的搜索引擎。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索引擎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://image.senjianlu.com/blog/2024-10-14/baidu.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,6 +314,14 @@
   </si>
   <si>
     <t>https://image.senjianlu.com/blog/2024-10-14/google.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎。11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害的搜索引擎。33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,12 +511,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -525,6 +519,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,13 +571,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1146735</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>186764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1606175</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -661,13 +661,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -727,13 +727,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564029</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>239059</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -783,6 +783,80 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
             <a:t>多个的话，用半角逗号分隔。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160618</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>194236</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="对话气泡: 矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788965FB-9293-5541-A277-0299E5AB6553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160618" y="3384176"/>
+          <a:ext cx="1512794" cy="500530"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34815"/>
+            <a:gd name="adj2" fmla="val -117043"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>选择 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>FALSE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t> 后，该数据将被脚本无视。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1163,233 +1237,235 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:R12"/>
+  <dimension ref="A2:R11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="12"/>
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="19" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="13"/>
+      <c r="B5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="19" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="11"/>
+      <c r="B6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I9" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="I8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="b">
+    <row r="11" spans="1:18" ht="64">
+      <c r="A11" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4">
-        <f>IF(ISBLANK($B12), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B12, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+      <c r="J11" s="4">
+        <f>IF(ISBLANK($B11), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B11, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
         <v>2</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5" t="s">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A12:R12">
+  <conditionalFormatting sqref="A11:R11">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(NOT(ISBLANK($A12)), $A12=FALSE)</formula>
+      <formula>AND(NOT(ISBLANK($A11)), $A11=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1" xr:uid="{71F89599-4B24-4A80-879F-3B9FF0BDB10A}"/>
-    <hyperlink ref="O12" r:id="rId2" xr:uid="{77C295E2-86B7-4722-9182-544B5C633138}"/>
-    <hyperlink ref="P12" r:id="rId3" xr:uid="{D473403B-638A-4A28-B33E-C0BD21107C38}"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{71F89599-4B24-4A80-879F-3B9FF0BDB10A}"/>
+    <hyperlink ref="O11" r:id="rId2" xr:uid="{77C295E2-86B7-4722-9182-544B5C633138}"/>
+    <hyperlink ref="P11" r:id="rId3" xr:uid="{D473403B-638A-4A28-B33E-C0BD21107C38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -1402,30 +1478,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="64">
       <c r="A2" s="8" t="b">
         <v>0</v>
       </c>
@@ -1490,11 +1566,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1530,7 +1606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="48">
       <c r="A3" s="8" t="b">
         <v>1</v>
       </c>
@@ -1539,13 +1615,13 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>10</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1571,28 +1647,28 @@
         <v>0</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="48">
       <c r="A4" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>10</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1606,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>18</v>
@@ -1618,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="48">
       <c r="A5" s="8" t="b">
         <v>1</v>
       </c>
@@ -1633,13 +1709,13 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>10</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1653,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>18</v>
@@ -1665,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="48">
       <c r="A6" s="8" t="b">
         <v>1</v>
       </c>
@@ -1680,13 +1756,13 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>10</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>360</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1700,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>18</v>
@@ -1712,20 +1788,20 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10"/>
       <c r="J7" s="4" t="str">
@@ -1741,14 +1817,14 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4"/>
       <c r="I8" s="10"/>
       <c r="J8" s="4" t="str">
@@ -1764,14 +1840,14 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
       <c r="J9" s="4" t="str">
@@ -1787,14 +1863,14 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
       <c r="J10" s="4" t="str">
@@ -1810,14 +1886,14 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
       <c r="J11" s="4" t="str">
@@ -1833,14 +1909,14 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
       <c r="J12" s="4" t="str">
@@ -1856,14 +1932,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4"/>
       <c r="I13" s="10"/>
       <c r="J13" s="4" t="str">
@@ -1879,14 +1955,14 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="10"/>
       <c r="J14" s="4" t="str">
@@ -1902,14 +1978,14 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
       <c r="J15" s="4" t="str">
@@ -1925,14 +2001,14 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
       <c r="J16" s="4" t="str">
@@ -1948,14 +2024,14 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
       <c r="J17" s="4" t="str">
@@ -1971,14 +2047,14 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
       <c r="J18" s="4" t="str">
@@ -1994,14 +2070,14 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="10"/>
       <c r="J19" s="4" t="str">
@@ -2017,14 +2093,14 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
       <c r="J20" s="4" t="str">
@@ -2040,14 +2116,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="4"/>
       <c r="I21" s="10"/>
       <c r="J21" s="4" t="str">
@@ -2063,14 +2139,14 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="4"/>
       <c r="I22" s="10"/>
       <c r="J22" s="4" t="str">
@@ -2086,14 +2162,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="4"/>
       <c r="I23" s="10"/>
       <c r="J23" s="4" t="str">
@@ -2109,14 +2185,14 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="4"/>
       <c r="I24" s="10"/>
       <c r="J24" s="4" t="str">
@@ -2132,14 +2208,14 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="4"/>
       <c r="I25" s="10"/>
       <c r="J25" s="4" t="str">
@@ -2155,14 +2231,14 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="4"/>
       <c r="I26" s="10"/>
       <c r="J26" s="4" t="str">
@@ -2178,14 +2254,14 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="4"/>
       <c r="I27" s="10"/>
       <c r="J27" s="4" t="str">
@@ -2201,14 +2277,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="4"/>
       <c r="I28" s="10"/>
       <c r="J28" s="4" t="str">
@@ -2224,14 +2300,14 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="4"/>
       <c r="I29" s="10"/>
       <c r="J29" s="4" t="str">
@@ -2247,14 +2323,14 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="4"/>
       <c r="I30" s="10"/>
       <c r="J30" s="4" t="str">
@@ -2270,14 +2346,14 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="4"/>
       <c r="I31" s="10"/>
       <c r="J31" s="4" t="str">
@@ -2293,14 +2369,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="4"/>
       <c r="I32" s="10"/>
       <c r="J32" s="4" t="str">
@@ -2316,14 +2392,14 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="4"/>
       <c r="I33" s="10"/>
       <c r="J33" s="4" t="str">
@@ -2339,14 +2415,14 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="4"/>
       <c r="I34" s="10"/>
       <c r="J34" s="4" t="str">
@@ -2362,14 +2438,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="4"/>
       <c r="I35" s="10"/>
       <c r="J35" s="4" t="str">
@@ -2385,14 +2461,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="4"/>
       <c r="I36" s="10"/>
       <c r="J36" s="4" t="str">
@@ -2408,14 +2484,14 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="4"/>
       <c r="I37" s="10"/>
       <c r="J37" s="4" t="str">
@@ -2461,16 +2537,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -2487,7 +2563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -2504,7 +2580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2521,7 +2597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2531,119 +2607,119 @@
       <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F880776A-F9C6-4444-9299-28E44A7F9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E921FE20-8C62-8249-A322-D63BF1114091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,26 @@
   </si>
   <si>
     <t>厉害的搜索引擎。33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_search_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://duckduckgo.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DuckDuck Go 2233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DuckDuck 1122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,7 +1498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1794,24 +1814,46 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:18" ht="16">
+      <c r="A7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="4" t="str">
+      <c r="E7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="18">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="4">
         <f>IF(ISBLANK($B7), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B7, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="4"/>
@@ -2526,6 +2568,7 @@
     <hyperlink ref="O5" r:id="rId9" xr:uid="{2576583A-8747-41C9-80BB-CFD41C2F93BE}"/>
     <hyperlink ref="O6" r:id="rId10" xr:uid="{4FA9D3D6-053E-49CB-9557-304311E88DFE}"/>
     <hyperlink ref="O3" r:id="rId11" xr:uid="{175EBDC9-5EF7-4666-A5CC-94610D8D338E}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{52BC582B-6348-3A4A-BFFB-B9B64D86CC54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E921FE20-8C62-8249-A322-D63BF1114091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DD116D-328D-40FF-AFF9-059B887BC081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方式" sheetId="3" r:id="rId1"/>
     <sheet name="网址" sheetId="1" r:id="rId2"/>
     <sheet name="备用链接地址（其他站点）" sheetId="2" r:id="rId3"/>
+    <sheet name="测试网址" sheetId="4" r:id="rId4"/>
+    <sheet name="测试备用链接地址（其他站点）" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +237,6 @@
   </si>
   <si>
     <t>test_search_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -546,12 +550,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -899,7 +925,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>504264</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>29882</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -914,8 +940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6637618" y="272677"/>
-          <a:ext cx="2398058" cy="758264"/>
+          <a:off x="6846794" y="280148"/>
+          <a:ext cx="2398058" cy="739588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,6 +1009,262 @@
             <a:t> 做排序用。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 过程 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122DC41B-4178-4F3A-B661-AF345D24EF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11206"/>
+          <a:ext cx="21717000" cy="3731560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>                                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                                                                                                                                         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>请勿修改测试用数据。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                                                                                                                                         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>会导致单元测试无法通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 过程 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C428004D-B8EB-7091-6389-DB79C43BC443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6252882" cy="4112559"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>                                     请勿修改测试用数据。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>                                 会导致单元测试无法通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>！</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1263,27 +1545,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1579,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="22" t="s">
         <v>36</v>
@@ -1309,7 +1591,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="22" t="s">
         <v>44</v>
@@ -1321,7 +1603,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
         <v>35</v>
@@ -1333,7 +1615,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
         <v>34</v>
@@ -1345,7 +1627,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="22" t="s">
         <v>33</v>
@@ -1357,12 +1639,12 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="64">
+    <row r="11" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="b">
         <v>0</v>
       </c>
@@ -1478,7 +1760,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:R11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(NOT(ISBLANK($A11)), $A11=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1498,30 +1780,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="64">
+    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="b">
         <v>0</v>
       </c>
@@ -1626,240 +1908,1377 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="48">
-      <c r="A3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="18">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="4" t="str">
         <f>IF(ISBLANK($B3), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B3, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="48">
-      <c r="A4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="18">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4">
-        <f>IF(ISBLANK($B4), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B4, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="48">
-      <c r="A5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>47</v>
-      </c>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="18">
-        <v>10</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="4">
-        <f>IF(ISBLANK($B5), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B5, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="48">
-      <c r="A6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="18">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19">
-        <v>360</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="4">
-        <f>IF(ISBLANK($B6), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B6, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="16">
-      <c r="A7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>70</v>
-      </c>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="18">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="4">
-        <f>IF(ISBLANK($B7), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B7, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="4" t="str">
+        <f>IF(ISBLANK($B9), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B9, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="4" t="str">
+        <f>IF(ISBLANK($B10), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B10, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="4" t="str">
+        <f>IF(ISBLANK($B11), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B11, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="4" t="str">
+        <f>IF(ISBLANK($B12), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B12, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="4" t="str">
+        <f>IF(ISBLANK($B13), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B13, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="4" t="str">
+        <f>IF(ISBLANK($B14), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B14, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="4" t="str">
+        <f>IF(ISBLANK($B15), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B15, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="4" t="str">
+        <f>IF(ISBLANK($B16), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B16, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="4" t="str">
+        <f>IF(ISBLANK($B17), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B17, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="4" t="str">
+        <f>IF(ISBLANK($B18), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B18, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="4" t="str">
+        <f>IF(ISBLANK($B19), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B19, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="4" t="str">
+        <f>IF(ISBLANK($B20), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B20, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="4" t="str">
+        <f>IF(ISBLANK($B21), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B21, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="4" t="str">
+        <f>IF(ISBLANK($B22), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B22, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="4" t="str">
+        <f>IF(ISBLANK($B23), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B23, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="4" t="str">
+        <f>IF(ISBLANK($B24), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B24, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="4" t="str">
+        <f>IF(ISBLANK($B25), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B25, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="4" t="str">
+        <f>IF(ISBLANK($B26), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B26, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="4" t="str">
+        <f>IF(ISBLANK($B27), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B27, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="4" t="str">
+        <f>IF(ISBLANK($B28), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B28, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="4" t="str">
+        <f>IF(ISBLANK($B29), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B29, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="4" t="str">
+        <f>IF(ISBLANK($B30), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B30, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="4" t="str">
+        <f>IF(ISBLANK($B31), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B31, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="4" t="str">
+        <f>IF(ISBLANK($B32), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B32, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="4" t="str">
+        <f>IF(ISBLANK($B33), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B33, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="4" t="str">
+        <f>IF(ISBLANK($B34), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B34, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="4" t="str">
+        <f>IF(ISBLANK($B35), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B35, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="4" t="str">
+        <f>IF(ISBLANK($B36), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B36, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="4" t="str">
+        <f>IF(ISBLANK($B37), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B37, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:R37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(NOT(ISBLANK($A2)), $A2=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{8A841FF2-14C9-4643-911E-325E5E4C716D}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{F44E5DA1-75DF-4146-9AB9-F7F023CEAEF5}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{A2486B70-5E1D-4C59-8987-3E38FC64A4FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA0697-F5E8-4071-98D0-CFFBD9AA1AE7}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="23">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D6F37F70-53C5-4DA2-995F-95E49366F4C5}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{59A3E3C1-F3BA-458A-99DD-0A7BCD494212}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9238DD73-C43D-4994-8F3E-2122F3C23F98}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4">
+        <f>IF(ISBLANK($B2), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B2, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
+        <f>IF(ISBLANK($B3), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B3, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4">
+        <f>IF(ISBLANK($B4), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B4, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="4">
+        <f>IF(ISBLANK($B5), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B5, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18">
+        <v>9</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>360</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4">
+        <f>IF(ISBLANK($B6), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B6, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4">
+        <f>IF(ISBLANK($B7), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B7, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
@@ -1882,714 +3301,53 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="4" t="str">
-        <f>IF(ISBLANK($B9), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B9, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="4" t="str">
-        <f>IF(ISBLANK($B10), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B10, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="4" t="str">
-        <f>IF(ISBLANK($B11), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B11, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="4" t="str">
-        <f>IF(ISBLANK($B12), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B12, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="4" t="str">
-        <f>IF(ISBLANK($B13), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B13, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="4" t="str">
-        <f>IF(ISBLANK($B14), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B14, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="4" t="str">
-        <f>IF(ISBLANK($B15), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B15, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="4" t="str">
-        <f>IF(ISBLANK($B16), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B16, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="4" t="str">
-        <f>IF(ISBLANK($B17), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B17, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="4" t="str">
-        <f>IF(ISBLANK($B18), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B18, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="4" t="str">
-        <f>IF(ISBLANK($B19), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B19, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="4" t="str">
-        <f>IF(ISBLANK($B20), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B20, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="4" t="str">
-        <f>IF(ISBLANK($B21), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B21, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="4" t="str">
-        <f>IF(ISBLANK($B22), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B22, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="4" t="str">
-        <f>IF(ISBLANK($B23), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B23, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="4" t="str">
-        <f>IF(ISBLANK($B24), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B24, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="4" t="str">
-        <f>IF(ISBLANK($B25), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B25, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="4" t="str">
-        <f>IF(ISBLANK($B26), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B26, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="4" t="str">
-        <f>IF(ISBLANK($B27), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B27, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="4" t="str">
-        <f>IF(ISBLANK($B28), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B28, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="4" t="str">
-        <f>IF(ISBLANK($B29), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B29, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="4" t="str">
-        <f>IF(ISBLANK($B30), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B30, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="4" t="str">
-        <f>IF(ISBLANK($B31), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B31, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="4" t="str">
-        <f>IF(ISBLANK($B32), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B32, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="4" t="str">
-        <f>IF(ISBLANK($B33), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B33, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="4" t="str">
-        <f>IF(ISBLANK($B34), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B34, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="4" t="str">
-        <f>IF(ISBLANK($B35), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B35, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="4" t="str">
-        <f>IF(ISBLANK($B36), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B36, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="4" t="str">
-        <f>IF(ISBLANK($B37), "", COUNTIFS('备用链接地址（其他站点）'!$A$2:$A$20, "="&amp;$B37, '备用链接地址（其他站点）'!$A$2:$A$20, "&lt;&gt;"))</f>
-        <v/>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:R37">
+  <conditionalFormatting sqref="A2:R8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(NOT(ISBLANK($A2)), $A2=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{8A841FF2-14C9-4643-911E-325E5E4C716D}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{F44E5DA1-75DF-4146-9AB9-F7F023CEAEF5}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{A2486B70-5E1D-4C59-8987-3E38FC64A4FC}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{10F61D49-62DE-450A-B130-ACAF15D36D3A}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{3D7F01B0-F84E-42CC-B17E-900CB5193DF5}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{EF7A7FDC-DB98-474F-8414-6D8F777A6381}"/>
-    <hyperlink ref="I3" r:id="rId7" xr:uid="{766DA363-B40A-4D32-BEA5-622D22BC9336}"/>
-    <hyperlink ref="O4" r:id="rId8" xr:uid="{1387EE55-B787-4B46-AAE6-FCE8A43E0EE5}"/>
-    <hyperlink ref="O5" r:id="rId9" xr:uid="{2576583A-8747-41C9-80BB-CFD41C2F93BE}"/>
-    <hyperlink ref="O6" r:id="rId10" xr:uid="{4FA9D3D6-053E-49CB-9557-304311E88DFE}"/>
-    <hyperlink ref="O3" r:id="rId11" xr:uid="{175EBDC9-5EF7-4666-A5CC-94610D8D338E}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{52BC582B-6348-3A4A-BFFB-B9B64D86CC54}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{1A05FD08-7EAD-4AB3-AE2A-2A89ADBAC06C}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{844F8FBE-7149-46FC-B0E1-681A833894AF}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{EA0FCC83-D4FD-41E1-8365-13635A7675E3}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{5B795C03-35C0-4E33-B862-435F2B52B4FB}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{979F9B1B-0C08-4EA4-9C24-47C027839AAC}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{7F347371-5A09-4F0A-9AD3-3AC55416956A}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{B7BDC1DB-F37F-48ED-9C54-AD68EA6C66A9}"/>
+    <hyperlink ref="O4" r:id="rId8" xr:uid="{175A3D9A-2723-4989-A81D-BD3085F3464E}"/>
+    <hyperlink ref="O5" r:id="rId9" xr:uid="{8061CF05-9B6F-4EBE-98D8-4E587E4179AD}"/>
+    <hyperlink ref="O6" r:id="rId10" xr:uid="{4FE12867-ABD3-483F-A110-08D1E89B958B}"/>
+    <hyperlink ref="O3" r:id="rId11" xr:uid="{DF11A354-7A17-414A-B133-9C2CCA1A750F}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{FCB6AFD1-75AE-44A3-8374-526759FD1EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA0697-F5E8-4071-98D0-CFFBD9AA1AE7}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CBC28F-64A1-4839-B279-6ECC3F844D7F}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -2606,7 +3364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -2623,7 +3381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2640,7 +3398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2648,121 +3406,121 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2772,9 +3530,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D6F37F70-53C5-4DA2-995F-95E49366F4C5}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{59A3E3C1-F3BA-458A-99DD-0A7BCD494212}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{54278758-899A-4B66-AC4C-132DDE0C42A9}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E66F5A0E-428D-4530-B377-834C46784F0E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{B40334B5-A1DC-4FA8-9D73-00A389B97D20}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{A4C0DDFD-3736-4C09-88E0-4DAB8839CCDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DD116D-328D-40FF-AFF9-059B887BC081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88DB4EE-E5B8-4567-85E3-9D6DBDF42F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,12 +544,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +555,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,13 +1024,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>291353</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1045,7 +1045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11206"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="21717000" cy="3731560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1569,75 +1569,75 @@
       <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
@@ -2747,36 +2747,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3008,10 +3008,10 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>14</v>
@@ -3059,7 +3059,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="19" t="s">
@@ -3105,7 +3105,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>50</v>
@@ -3149,10 +3149,10 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>51</v>
@@ -3199,7 +3199,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="19">
         <v>360</v>
@@ -3243,7 +3243,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="18">
         <v>9</v>
@@ -3334,9 +3334,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/OneNav 导航站数据集.xlsx
+++ b/OneNav 导航站数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG_A1_094\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujinpeng/Projects/steamcash/sync-onenav-from-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88DB4EE-E5B8-4567-85E3-9D6DBDF42F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883E843-6143-0D49-892A-8A373EF9945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55340" yWindow="4960" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方式" sheetId="3" r:id="rId1"/>
@@ -347,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1545,27 +1545,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="12"/>
       <c r="B3" s="26" t="s">
         <v>36</v>
@@ -1591,7 +1591,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="17"/>
       <c r="B4" s="26" t="s">
         <v>44</v>
@@ -1603,7 +1603,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="13"/>
       <c r="B5" s="26" t="s">
         <v>35</v>
@@ -1615,7 +1615,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="11"/>
       <c r="B6" s="26" t="s">
         <v>34</v>
@@ -1627,7 +1627,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="15"/>
       <c r="B7" s="26" t="s">
         <v>33</v>
@@ -1639,12 +1639,12 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="I8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="64">
       <c r="A11" s="8" t="b">
         <v>0</v>
       </c>
@@ -1778,32 +1778,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="64">
       <c r="A2" s="8" t="b">
         <v>0</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4"/>
@@ -1931,7 +1931,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -1951,7 +1951,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4"/>
@@ -1971,7 +1971,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4"/>
@@ -1991,7 +1991,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4"/>
@@ -2011,7 +2011,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
@@ -2031,7 +2031,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4"/>
@@ -2054,7 +2054,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
@@ -2077,7 +2077,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
@@ -2100,7 +2100,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
@@ -2123,7 +2123,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4"/>
@@ -2146,7 +2146,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
@@ -2169,7 +2169,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4"/>
@@ -2192,7 +2192,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
@@ -2215,7 +2215,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4"/>
@@ -2238,7 +2238,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -2261,7 +2261,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -2284,7 +2284,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
@@ -2307,7 +2307,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4"/>
@@ -2330,7 +2330,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="4"/>
@@ -2353,7 +2353,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4"/>
@@ -2376,7 +2376,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -2399,7 +2399,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="4"/>
@@ -2422,7 +2422,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="4"/>
@@ -2445,7 +2445,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="4"/>
@@ -2468,7 +2468,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4"/>
@@ -2491,7 +2491,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
@@ -2514,7 +2514,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
@@ -2537,7 +2537,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
@@ -2560,7 +2560,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
@@ -2583,7 +2583,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
@@ -2606,7 +2606,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
@@ -2629,7 +2629,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4"/>
@@ -2652,7 +2652,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
@@ -2675,7 +2675,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
@@ -2720,16 +2720,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -2780,119 +2780,119 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="20"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2917,32 +2917,32 @@
   </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="64">
       <c r="A2" s="8" t="b">
         <v>0</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="48">
       <c r="A3" s="8" t="b">
         <v>1</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="48">
       <c r="A4" s="8" t="b">
         <v>1</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="48">
       <c r="A5" s="8" t="b">
         <v>1</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="48">
       <c r="A6" s="8" t="b">
         <v>1</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" s="18">
         <v>3</v>
@@ -3233,7 +3233,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16">
       <c r="A7" s="8" t="b">
         <v>1</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>73</v>
@@ -3278,7 +3278,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
@@ -3323,6 +3323,7 @@
     <hyperlink ref="I7" r:id="rId12" xr:uid="{FCB6AFD1-75AE-44A3-8374-526759FD1EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId13"/>
 </worksheet>
 </file>
@@ -3336,16 +3337,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -3413,112 +3414,112 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
